--- a/REGULAR/OJT/NEW DONE/ARCULLO, MELISSA A..xlsx
+++ b/REGULAR/OJT/NEW DONE/ARCULLO, MELISSA A..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="635">
   <si>
     <t>PERIOD</t>
   </si>
@@ -4353,7 +4353,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K834" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K836" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4731,12 +4731,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K834"/>
+  <dimension ref="A2:K836"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A751" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A754" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="M6:O8"/>
-      <selection pane="bottomLeft" activeCell="B762" sqref="B762"/>
+      <selection pane="bottomLeft" activeCell="H766" sqref="H766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,7 +4893,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.525999999999783</v>
+        <v>47.025999999999783</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4903,7 +4903,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>30.75</v>
+        <v>31.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -21795,7 +21795,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <f t="shared" ref="A753:A763" si="0">EDATE(A752,1)</f>
+        <f t="shared" ref="A753:A762" si="0">EDATE(A752,1)</f>
         <v>44866</v>
       </c>
       <c r="B753" s="20"/>
@@ -21998,13 +21998,15 @@
         <v>45017</v>
       </c>
       <c r="B762" s="20"/>
-      <c r="C762" s="13"/>
+      <c r="C762" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D762" s="39"/>
       <c r="E762" s="9"/>
       <c r="F762" s="20"/>
-      <c r="G762" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G762" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H762" s="39"/>
       <c r="I762" s="9"/>
@@ -22013,26 +22015,36 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <f t="shared" si="0"/>
+        <f>EDATE(A762,1)</f>
         <v>45047</v>
       </c>
-      <c r="B763" s="20"/>
-      <c r="C763" s="13"/>
+      <c r="B763" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C763" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D763" s="39"/>
       <c r="E763" s="9"/>
       <c r="F763" s="20"/>
-      <c r="G763" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H763" s="39"/>
+      <c r="G763" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H763" s="39">
+        <v>1</v>
+      </c>
       <c r="I763" s="9"/>
       <c r="J763" s="11"/>
-      <c r="K763" s="20"/>
+      <c r="K763" s="48">
+        <v>45072</v>
+      </c>
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40"/>
-      <c r="B764" s="20"/>
+      <c r="B764" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="C764" s="13"/>
       <c r="D764" s="39"/>
       <c r="E764" s="9"/>
@@ -22044,11 +22056,15 @@
       <c r="H764" s="39"/>
       <c r="I764" s="9"/>
       <c r="J764" s="11"/>
-      <c r="K764" s="20"/>
+      <c r="K764" s="48">
+        <v>45076</v>
+      </c>
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40"/>
-      <c r="B765" s="20"/>
+      <c r="B765" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C765" s="13"/>
       <c r="D765" s="39"/>
       <c r="E765" s="9"/>
@@ -22057,13 +22073,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H765" s="39"/>
+      <c r="H765" s="39">
+        <v>1</v>
+      </c>
       <c r="I765" s="9"/>
       <c r="J765" s="11"/>
-      <c r="K765" s="20"/>
+      <c r="K765" s="48">
+        <v>45064</v>
+      </c>
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A766" s="40"/>
+      <c r="A766" s="40">
+        <v>45078</v>
+      </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
       <c r="D766" s="39"/>
@@ -23151,9 +23173,9 @@
       <c r="K833" s="20"/>
     </row>
     <row r="834" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A834" s="51"/>
+      <c r="A834" s="40"/>
       <c r="B834" s="20"/>
-      <c r="C834" s="41"/>
+      <c r="C834" s="13"/>
       <c r="D834" s="39"/>
       <c r="E834" s="9"/>
       <c r="F834" s="20"/>
@@ -23165,6 +23187,38 @@
       <c r="I834" s="9"/>
       <c r="J834" s="11"/>
       <c r="K834" s="20"/>
+    </row>
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A835" s="40"/>
+      <c r="B835" s="20"/>
+      <c r="C835" s="13"/>
+      <c r="D835" s="39"/>
+      <c r="E835" s="9"/>
+      <c r="F835" s="20"/>
+      <c r="G835" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H835" s="39"/>
+      <c r="I835" s="9"/>
+      <c r="J835" s="11"/>
+      <c r="K835" s="20"/>
+    </row>
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A836" s="51"/>
+      <c r="B836" s="20"/>
+      <c r="C836" s="41"/>
+      <c r="D836" s="39"/>
+      <c r="E836" s="9"/>
+      <c r="F836" s="20"/>
+      <c r="G836" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H836" s="39"/>
+      <c r="I836" s="9"/>
+      <c r="J836" s="11"/>
+      <c r="K836" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
